--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moncef\Documents\house_king_county\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanjo\Desktop\MasterDataScience\FundamentosDeAnalisisDeDatos\kcHouse\CLON\house_king_county\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{006F2F4E-F8CA-4044-A05C-DD148C02D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAF303A-94E2-4985-AB75-D5573016C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{7D965830-C2B3-4244-8830-F8573CA4DEED}"/>
+    <workbookView xWindow="315" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{7D965830-C2B3-4244-8830-F8573CA4DEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -684,17 +684,17 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" customWidth="1"/>
-    <col min="3" max="3" width="73.44140625" customWidth="1"/>
+    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,7 +744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,35 +753,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
